--- a/data/參加者活動統計表.xlsx
+++ b/data/參加者活動統計表.xlsx
@@ -1055,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1109,17 +1109,17 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1157,34 +1157,34 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1193,27 +1193,27 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>440</v>
@@ -1228,45 +1228,45 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M4">
-        <v>530</v>
+        <v>1290</v>
       </c>
       <c r="N4">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="O4">
-        <v>270</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -1275,51 +1275,51 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>1290</v>
+        <v>570</v>
       </c>
       <c r="N5">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="O5">
-        <v>710</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6">
-        <v>410</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1328,139 +1328,139 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>570</v>
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>610</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E8">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>60</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>150</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>610</v>
-      </c>
       <c r="N8">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="O8">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1469,139 +1469,139 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
         <v>10</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>60</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-      <c r="O9">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11">
-        <v>410</v>
-      </c>
-      <c r="F11">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>600</v>
-      </c>
       <c r="N11">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="O11">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1616,39 +1616,39 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1663,27 +1663,27 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1721,75 +1721,75 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>60</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
       <c r="M15">
+        <v>110</v>
+      </c>
+      <c r="N15">
         <v>70</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>40</v>
-      </c>
-      <c r="O15">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1798,16 +1798,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="N16">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O16">
         <v>40</v>
@@ -1815,28 +1815,28 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1845,86 +1845,86 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="O17">
-        <v>40</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E18">
+        <v>330</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
         <v>210</v>
       </c>
-      <c r="F18">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L18">
         <v>15</v>
       </c>
       <c r="M18">
-        <v>640</v>
+        <v>950</v>
       </c>
       <c r="N18">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="O18">
-        <v>370</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E19">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="F19">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>60</v>
@@ -1933,86 +1933,86 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>210</v>
+        <v>1440</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>950</v>
+        <v>2320</v>
       </c>
       <c r="N19">
-        <v>350</v>
+        <v>870</v>
       </c>
       <c r="O19">
-        <v>600</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2050,28 +2050,28 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2080,45 +2080,45 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2127,33 +2127,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2191,28 +2191,28 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2227,39 +2227,39 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2274,39 +2274,39 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2332,28 +2332,28 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2362,45 +2362,45 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="N28">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E29">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2409,33 +2409,33 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
         <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2473,69 +2473,69 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
         <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32">
+        <v>440</v>
+      </c>
+      <c r="F32">
         <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32">
-        <v>400</v>
-      </c>
-      <c r="F32">
-        <v>40</v>
       </c>
       <c r="G32">
         <v>60</v>
@@ -2544,51 +2544,51 @@
         <v>6</v>
       </c>
       <c r="I32">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>1120</v>
+        <v>620</v>
       </c>
       <c r="N32">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="O32">
-        <v>540</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E33">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2597,51 +2597,51 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
         <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2650,133 +2650,133 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
         <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E35">
-        <v>410</v>
+        <v>190</v>
       </c>
       <c r="F35">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="N35">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="O35">
-        <v>240</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E36">
+        <v>440</v>
+      </c>
+      <c r="F36">
+        <v>44</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>190</v>
       </c>
-      <c r="F36">
-        <v>19</v>
-      </c>
-      <c r="G36">
-        <v>30</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>90</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
       <c r="L36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>320</v>
+        <v>690</v>
       </c>
       <c r="N36">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="O36">
-        <v>130</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E37">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2785,86 +2785,86 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
         <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
         <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E39">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="F39">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>60</v>
@@ -2873,127 +2873,127 @@
         <v>6</v>
       </c>
       <c r="I39">
-        <v>750</v>
+        <v>90</v>
       </c>
       <c r="J39">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M39">
-        <v>1650</v>
+        <v>690</v>
       </c>
       <c r="N39">
-        <v>610</v>
+        <v>360</v>
       </c>
       <c r="O39">
-        <v>1040</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
         <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E40">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="F40">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K40">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M40">
-        <v>690</v>
+        <v>1010</v>
       </c>
       <c r="N40">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="O40">
-        <v>330</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E41">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F41">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41">
-        <v>240</v>
+        <v>630</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K41">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1010</v>
+        <v>1090</v>
       </c>
       <c r="N41">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="O41">
-        <v>580</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>189</v>
@@ -3002,10 +3002,10 @@
         <v>196</v>
       </c>
       <c r="E42">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F42">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>60</v>
@@ -3014,145 +3014,145 @@
         <v>6</v>
       </c>
       <c r="I42">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="J42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>1090</v>
+        <v>1560</v>
       </c>
       <c r="N42">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="O42">
-        <v>480</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E43">
+        <v>420</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>90</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>260</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>820</v>
+      </c>
+      <c r="N43">
+        <v>380</v>
+      </c>
+      <c r="O43">
         <v>440</v>
-      </c>
-      <c r="F43">
-        <v>44</v>
-      </c>
-      <c r="G43">
-        <v>60</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>660</v>
-      </c>
-      <c r="J43">
-        <v>22</v>
-      </c>
-      <c r="K43">
-        <v>400</v>
-      </c>
-      <c r="L43">
-        <v>17</v>
-      </c>
-      <c r="M43">
-        <v>1560</v>
-      </c>
-      <c r="N43">
-        <v>600</v>
-      </c>
-      <c r="O43">
-        <v>960</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E44">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="F44">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>820</v>
+        <v>180</v>
       </c>
       <c r="N44">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="O44">
-        <v>440</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E45">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G45">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3161,139 +3161,139 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M45">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="N45">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E46">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>60</v>
       </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>250</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46">
-        <v>750</v>
-      </c>
       <c r="N46">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="O46">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
         <v>2</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
       <c r="M47">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="N47">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E48">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3302,86 +3302,86 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
         <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
         <v>197</v>
       </c>
       <c r="E50">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="F50">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>60</v>
@@ -3390,45 +3390,45 @@
         <v>6</v>
       </c>
       <c r="I50">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="J50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K50">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M50">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="N50">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="O50">
-        <v>690</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
         <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="E51">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F51">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>60</v>
@@ -3437,98 +3437,98 @@
         <v>6</v>
       </c>
       <c r="I51">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K51">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>850</v>
+        <v>620</v>
       </c>
       <c r="N51">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="O51">
-        <v>480</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E52">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
         <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3537,186 +3537,186 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
         <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E54">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="F54">
+        <v>16</v>
+      </c>
+      <c r="G54">
         <v>40</v>
       </c>
-      <c r="G54">
-        <v>20</v>
-      </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="N54">
         <v>230</v>
       </c>
       <c r="O54">
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
         <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E55">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G55">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>30</v>
+        <v>1350</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>320</v>
+        <v>2360</v>
       </c>
       <c r="N55">
-        <v>230</v>
+        <v>820</v>
       </c>
       <c r="O55">
-        <v>90</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
         <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E56">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="F56">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>2360</v>
+        <v>70</v>
       </c>
       <c r="N56">
-        <v>820</v>
+        <v>70</v>
       </c>
       <c r="O56">
-        <v>1540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E57">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3731,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -3742,22 +3742,22 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
         <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <v>10</v>
@@ -3778,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -3789,263 +3789,263 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>190</v>
       </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59">
-        <v>40</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
       <c r="L59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M59">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N59">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>110</v>
+      </c>
+      <c r="N60">
         <v>90</v>
       </c>
-      <c r="F60">
-        <v>9</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>190</v>
-      </c>
-      <c r="L60">
-        <v>8</v>
-      </c>
-      <c r="M60">
-        <v>330</v>
-      </c>
-      <c r="N60">
-        <v>200</v>
-      </c>
       <c r="O60">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K61">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61">
+        <v>450</v>
+      </c>
+      <c r="N61">
         <v>110</v>
       </c>
-      <c r="N61">
-        <v>90</v>
-      </c>
       <c r="O61">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
         <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E62">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
         <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E64">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>60</v>
@@ -4054,92 +4054,92 @@
         <v>2</v>
       </c>
       <c r="K64">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="N64">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="O64">
-        <v>580</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
         <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="E65">
+        <v>90</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65">
         <v>50</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>5</v>
       </c>
-      <c r="G65">
-        <v>20</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
       <c r="I65">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N65">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="O65">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4148,39 +4148,39 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -4212,122 +4212,122 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
         <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E68">
+        <v>420</v>
+      </c>
+      <c r="F68">
+        <v>42</v>
+      </c>
+      <c r="G68">
+        <v>60</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>60</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>230</v>
+      </c>
+      <c r="L68">
         <v>10</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
       <c r="M68">
-        <v>10</v>
+        <v>770</v>
       </c>
       <c r="N68">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
         <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E69">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="F69">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G69">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>180</v>
+      </c>
+      <c r="N69">
+        <v>120</v>
+      </c>
+      <c r="O69">
         <v>60</v>
-      </c>
-      <c r="H69">
-        <v>6</v>
-      </c>
-      <c r="I69">
-        <v>60</v>
-      </c>
-      <c r="J69">
-        <v>2</v>
-      </c>
-      <c r="K69">
-        <v>230</v>
-      </c>
-      <c r="L69">
-        <v>10</v>
-      </c>
-      <c r="M69">
-        <v>770</v>
-      </c>
-      <c r="N69">
-        <v>350</v>
-      </c>
-      <c r="O69">
-        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E70">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4336,45 +4336,45 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70">
+        <v>280</v>
+      </c>
+      <c r="N70">
         <v>180</v>
       </c>
-      <c r="N70">
-        <v>120</v>
-      </c>
       <c r="O70">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E71">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4383,86 +4383,86 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
         <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73">
         <v>40</v>
@@ -4471,51 +4471,51 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="N73">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="O73">
-        <v>320</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E74">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G74">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -4524,45 +4524,45 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N74">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="O74">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E75">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4571,39 +4571,39 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M75">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="N75">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O75">
-        <v>100</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
         <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E76">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="F76">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -4612,39 +4612,39 @@
         <v>6</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K76">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="L76">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>470</v>
+        <v>1650</v>
       </c>
       <c r="N76">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="O76">
-        <v>290</v>
+        <v>970</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
         <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E77">
         <v>440</v>
@@ -4659,45 +4659,45 @@
         <v>6</v>
       </c>
       <c r="I77">
-        <v>720</v>
+        <v>1380</v>
       </c>
       <c r="J77">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L77">
         <v>18</v>
       </c>
       <c r="M77">
-        <v>1650</v>
+        <v>2320</v>
       </c>
       <c r="N77">
-        <v>680</v>
+        <v>870</v>
       </c>
       <c r="O77">
-        <v>970</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
         <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E78">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="F78">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G78">
         <v>60</v>
@@ -4706,51 +4706,51 @@
         <v>6</v>
       </c>
       <c r="I78">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M78">
-        <v>2320</v>
+        <v>600</v>
       </c>
       <c r="N78">
-        <v>870</v>
+        <v>290</v>
       </c>
       <c r="O78">
-        <v>1450</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
         <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E79">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4759,227 +4759,227 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E81">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>860</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="E83">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="F83">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>100</v>
+      </c>
+      <c r="N83">
         <v>60</v>
       </c>
-      <c r="H83">
-        <v>6</v>
-      </c>
-      <c r="I83">
-        <v>750</v>
-      </c>
-      <c r="J83">
-        <v>25</v>
-      </c>
-      <c r="K83">
-        <v>300</v>
-      </c>
-      <c r="L83">
-        <v>13</v>
-      </c>
-      <c r="M83">
-        <v>1550</v>
-      </c>
-      <c r="N83">
-        <v>690</v>
-      </c>
       <c r="O83">
-        <v>860</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -5000,39 +5000,39 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5041,86 +5041,86 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E86">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="F86">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>150</v>
+      </c>
+      <c r="J86">
         <v>5</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
       <c r="K86">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M86">
-        <v>310</v>
+        <v>870</v>
       </c>
       <c r="N86">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="O86">
-        <v>130</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
         <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E87">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="F87">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>60</v>
@@ -5129,51 +5129,51 @@
         <v>6</v>
       </c>
       <c r="I87">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="L87">
         <v>11</v>
       </c>
       <c r="M87">
-        <v>870</v>
+        <v>420</v>
       </c>
       <c r="N87">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="O87">
-        <v>530</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="E88">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5182,65 +5182,18 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" t="s">
-        <v>227</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
         <v>0</v>
       </c>
     </row>
